--- a/docs/sem_2/risk_management.xlsx
+++ b/docs/sem_2/risk_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\NeCo_Git\NeCo\docs\sem_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2380DEC4-06AA-4BA3-83ED-B5FB6480E2D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51015E7-2210-4099-A8F1-AC49FB6E9851}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6555" windowHeight="3668" xr2:uid="{CC889EFE-F9E2-4B7D-8E9D-18CCF3BDF79D}"/>
   </bookViews>
@@ -180,12 +180,17 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
+        <left style="thick">
           <color auto="1"/>
-        </right>
+        </left>
+        <right/>
         <top/>
         <bottom/>
         <vertical style="thick">
@@ -199,16 +204,11 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
+        <left/>
+        <right style="thick">
           <color auto="1"/>
-        </left>
-        <right/>
+        </right>
         <top/>
         <bottom/>
         <vertical style="thick">
@@ -232,18 +232,26 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3864B57A-EDF2-4945-969E-53CA9D2ABE23}" name="Tabelle4" displayName="Tabelle4" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10" xr:uid="{CB0B1DBD-08E8-44EE-AF5F-12D7D368DD25}"/>
+  <autoFilter ref="A1:G10" xr:uid="{CB0B1DBD-08E8-44EE-AF5F-12D7D368DD25}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <sortState ref="A2:G10">
     <sortCondition descending="1" ref="G1:G10"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F00AE20B-8188-47D3-9C10-6D5676F33862}" name="Identified" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{5A71423F-5A5F-417D-9B6F-10AC295D59E2}" name="Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{33E8BBE1-B0F2-40CB-A7C1-B64B89FFFC4C}" name="prob of occurence (in %)" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{F00AE20B-8188-47D3-9C10-6D5676F33862}" name="Identified" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5A71423F-5A5F-417D-9B6F-10AC295D59E2}" name="Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{33E8BBE1-B0F2-40CB-A7C1-B64B89FFFC4C}" name="prob of occurence (in %)" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{5CE44C95-CF39-4B0D-8937-D7D668A116BE}" name="damage/impact (1-10)"/>
     <tableColumn id="4" xr3:uid="{EEB573F2-0D60-4F2B-B656-56ABB522402D}" name="mitigation strategy" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{CF91237D-0264-4061-B5EB-6BB1B6673882}" name="person in charge"/>
-    <tableColumn id="6" xr3:uid="{626A22F0-DEC2-43ED-B2C0-A7DE3F2E00BE}" name="risk factor" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{626A22F0-DEC2-43ED-B2C0-A7DE3F2E00BE}" name="risk factor" dataDxfId="0">
       <calculatedColumnFormula>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -550,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B2D84-B987-4456-9077-91B148D8838E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/docs/sem_2/risk_management.xlsx
+++ b/docs/sem_2/risk_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\NeCo_Git\NeCo\docs\sem_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51015E7-2210-4099-A8F1-AC49FB6E9851}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E1E4D-660E-45A5-8E2D-13757AB20998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6555" windowHeight="3668" xr2:uid="{CC889EFE-F9E2-4B7D-8E9D-18CCF3BDF79D}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>person in charge</t>
   </si>
   <si>
-    <t>risk factor</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>update freeze before endpresentation; backups; docker</t>
+  </si>
+  <si>
+    <t>risk factor (0-10)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
     <tableColumn id="3" xr3:uid="{5CE44C95-CF39-4B0D-8937-D7D668A116BE}" name="damage/impact (1-10)"/>
     <tableColumn id="4" xr3:uid="{EEB573F2-0D60-4F2B-B656-56ABB522402D}" name="mitigation strategy" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{CF91237D-0264-4061-B5EB-6BB1B6673882}" name="person in charge"/>
-    <tableColumn id="6" xr3:uid="{626A22F0-DEC2-43ED-B2C0-A7DE3F2E00BE}" name="risk factor" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{626A22F0-DEC2-43ED-B2C0-A7DE3F2E00BE}" name="risk factor (0-10)" dataDxfId="0">
       <calculatedColumnFormula>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -559,7 +559,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -570,6 +570,7 @@
     <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -577,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -592,15 +593,15 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>0.4</v>
@@ -609,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
       <c r="G2">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
@@ -621,10 +622,10 @@
     </row>
     <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>0.3</v>
@@ -633,10 +634,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
@@ -645,10 +646,10 @@
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>0.4</v>
@@ -657,10 +658,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
@@ -669,10 +670,10 @@
     </row>
     <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>0.1</v>
@@ -681,10 +682,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
@@ -693,10 +694,10 @@
     </row>
     <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>0.3</v>
@@ -705,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
@@ -714,10 +715,10 @@
     </row>
     <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>0.02</v>
@@ -726,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>

--- a/docs/sem_2/risk_management.xlsx
+++ b/docs/sem_2/risk_management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\NeCo_Git\NeCo\docs\sem_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E1E4D-660E-45A5-8E2D-13757AB20998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A1DE90-97B4-4863-AC53-0CF65840A088}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6555" windowHeight="3668" xr2:uid="{CC889EFE-F9E2-4B7D-8E9D-18CCF3BDF79D}"/>
   </bookViews>
@@ -124,12 +124,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -172,6 +184,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,18 +593,18 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -596,7 +630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -620,79 +654,79 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8">
+        <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="12">
         <v>0.3</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="13">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="13">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="8">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="8">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -713,28 +747,28 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="8">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
-        <v>0.16</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">

--- a/docs/sem_2/risk_management.xlsx
+++ b/docs/sem_2/risk_management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\NeCo_Git\NeCo\docs\sem_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A1DE90-97B4-4863-AC53-0CF65840A088}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9179F16C-ACDA-4E6C-8AE5-1E76F9B52DBC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6555" windowHeight="3668" xr2:uid="{CC889EFE-F9E2-4B7D-8E9D-18CCF3BDF79D}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -651,79 +651,79 @@
       </c>
       <c r="G2">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="8">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8">
+        <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>0.3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D5" s="13">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G5" s="13">
         <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
         <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8">
-        <f>PRODUCT(Tabelle4[[#This Row],[prob of occurence (in %)]:[damage/impact (1-10)]])</f>
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.45">
